--- a/medicine/Psychotrope/Carema_(DOC)/Carema_(DOC).xlsx
+++ b/medicine/Psychotrope/Carema_(DOC)/Carema_(DOC).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Carema est un vin rouge sec italien de la région du Piémont doté d'une appellation DOC depuis le 9 juillet 1967. Seuls ont droit à la DOC les vins rouges récoltés à l'intérieur de l'aire de production définie par le décret. Les vignobles autorisés se situent en province de Turin dans la commune de Carema. 13,29 des 120 hectares délimités sont en production.
@@ -516,7 +528,9 @@
           <t>Caractéristiques organoleptiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">couleur : rouge rubis avec des reflets grenat, qui s’atténue avec le temps.
 odeur :  caractéristique, intense, qui s’affine avec le vieillissement, arômes de  rose macérée.
@@ -551,6 +565,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,7 +592,9 @@
           <t>Association de plats conseillée</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Grillades variées, grands rôtis, viandes braisées ou en marmelade, gibier en civet, foies gras, fromages affinés.
 </t>
@@ -607,7 +625,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Province, saison, volume en hectolitres : 
 Torino  (1990/91)  356,55
